--- a/classfiers/bottleneck/svm/nearmiss/bottleneck-svm-default-nearmiss-results.xlsx
+++ b/classfiers/bottleneck/svm/nearmiss/bottleneck-svm-default-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5555555555555556</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3888888888888889</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5600000000000001</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8918128654970759</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +508,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7894736842105263</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8823529411764706</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8859649122807017</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7894736842105263</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8823529411764706</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8245614035087719</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7191358024691359</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0.9285714285714285</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5713450292397659</v>
+        <v>0.8444444444444444</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7077983193277311</v>
+        <v>0.8292490118577074</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7754061078622481</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/bottleneck/svm/nearmiss/bottleneck-svm-default-nearmiss-results.xlsx
+++ b/classfiers/bottleneck/svm/nearmiss/bottleneck-svm-default-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7826086956521739</v>
+        <v>0.9</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.9777777777777779</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.5777777777777777</v>
       </c>
     </row>
     <row r="4">
@@ -508,10 +508,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9888888888888888</v>
       </c>
     </row>
     <row r="6">
@@ -546,10 +546,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.6153846153846153</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9285714285714285</v>
+        <v>0.9436363636363637</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8444444444444444</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8292490118577074</v>
+        <v>0.7592673992673993</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0.9088888888888889</v>
       </c>
     </row>
   </sheetData>
